--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段；
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>居住地址</t>
-  </si>
-  <si>
-    <t>联系方式</t>
   </si>
   <si>
     <t>电子邮箱</t>
@@ -87,8 +84,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -116,23 +113,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,32 +129,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,6 +152,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,9 +211,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,43 +244,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,13 +258,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,43 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,121 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,30 +449,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,7 +471,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +503,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -532,26 +549,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,19 +569,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,112 +590,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="P1" sqref="P$1:P$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1051,11 +1048,11 @@
     <col min="12" max="12" width="15.375" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="15" max="15" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="66" customHeight="1" spans="1:20">
+    <row r="1" ht="66" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1077,9 +1074,8 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+    <row r="2" s="1" customFormat="1" spans="1:19">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1136,9 +1132,6 @@
       </c>
       <c r="S2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="7:7">
@@ -1146,16 +1139,16 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+      <formula1>"在职,离职,合作"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"在职,离职,合作"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3">
       <formula1>"硕士,博士,本科,专科,高中,初中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -18,7 +18,7 @@
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段；
-2.出生年月日格式为2021-01-01或者2021/01/01；
+2.出生年月日格式为2021-01-01；
 3.状态、性别、学历通过下拉选择；</t>
   </si>
   <si>
@@ -70,7 +70,7 @@
     <t>电子邮箱</t>
   </si>
   <si>
-    <t>最高学历</t>
+    <t>学历</t>
   </si>
   <si>
     <t>毕业院校</t>
@@ -83,11 +83,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,16 +106,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,16 +129,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,8 +145,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,46 +162,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,9 +176,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +199,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,22 +214,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,163 +259,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,19 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,17 +453,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +482,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,49 +537,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,150 +570,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,55 +1047,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="15" max="15" width="10.125" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="26.125" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
     <col min="19" max="19" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="66" customHeight="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="65" customHeight="1" spans="1:19">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1091,7 +1113,7 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1109,7 +1131,7 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1134,21 +1156,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="7:7">
-      <c r="G7" s="1"/>
+    <row r="3" spans="12:12">
+      <c r="L3" s="3">
+        <v>44177</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>"硕士,博士,本科,专科,高中,初中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28215" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段；
@@ -84,11 +84,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,15 +107,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,9 +128,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,29 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -176,22 +189,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +229,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,44 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,19 +259,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,25 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,133 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,30 +450,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,20 +479,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +526,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,12 +780,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1041,16 +1036,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1174,7 +1170,7 @@
       <formula1>"男,女"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
-      <formula1>"硕士,博士,本科,专科,高中,初中"</formula1>
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28215" windowHeight="12480"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,12 +83,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,14 +108,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,8 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,31 +198,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,62 +236,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,31 +260,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,145 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,11 +454,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,77 +545,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -716,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -725,7 +726,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,7 +1047,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段；
@@ -84,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,6 +107,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -115,60 +123,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,31 +152,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +175,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -236,16 +198,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,52 +454,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,17 +502,43 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,19 +571,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,141 +592,154 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,6 +795,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1037,142 +1055,139 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="26.125" customWidth="1"/>
-    <col min="14" max="14" width="18.375" customWidth="1"/>
-    <col min="15" max="15" width="21.75" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1"/>
-    <col min="18" max="18" width="17.375" customWidth="1"/>
-    <col min="19" max="19" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="17.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="65" customHeight="1" spans="1:19">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="12:12">
-      <c r="L3" s="3">
-        <v>44177</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CED7" sheet="1" objects="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -85,11 +85,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,13 +108,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,6 +146,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -130,15 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,39 +181,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,52 +207,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +458,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,15 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,11 +495,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +534,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -559,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -713,18 +713,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -733,13 +733,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1074,7 +1074,7 @@
     <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
     <col min="5" max="6" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
@@ -1173,20 +1173,20 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CED7" sheet="1" objects="1"/>
+  <sheetProtection password="CED7" sheet="1" formatColumns="0" formatRows="0" objects="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -58,7 +58,7 @@
     <t>出生年月日</t>
   </si>
   <si>
-    <t>身份证号码</t>
+    <t>身份证号码*</t>
   </si>
   <si>
     <t>户籍地址</t>
@@ -84,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,6 +104,96 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,64 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -183,47 +215,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,21 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,25 +260,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,43 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,109 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,15 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,6 +465,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,22 +508,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,22 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -705,26 +705,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -733,13 +735,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,111 +1063,111 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="17.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="17.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="26.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.75" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14.25" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="65" customHeight="1" spans="1:19">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:19">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:19">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1178,10 +1177,10 @@
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段；
@@ -40,6 +40,9 @@
     <t>角色*</t>
   </si>
   <si>
+    <t>推荐人手机号码</t>
+  </si>
+  <si>
     <t>状态</t>
   </si>
   <si>
@@ -77,6 +80,21 @@
   </si>
   <si>
     <t>所学专业</t>
+  </si>
+  <si>
+    <t>家庭成员姓名</t>
+  </si>
+  <si>
+    <t>家庭成员关系</t>
+  </si>
+  <si>
+    <t>家庭成员电话</t>
+  </si>
+  <si>
+    <t>从事行业</t>
+  </si>
+  <si>
+    <t>联系地址</t>
   </si>
 </sst>
 </file>
@@ -84,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -114,6 +132,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -128,6 +154,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -135,31 +162,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -167,17 +217,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,14 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -205,40 +240,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +487,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -485,6 +518,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,30 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -562,7 +580,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,137 +589,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,32 +731,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1073,53 +1088,63 @@
     <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="3" customWidth="1"/>
     <col min="5" max="6" width="15.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="26.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17" style="3" customWidth="1"/>
-    <col min="17" max="17" width="14.25" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="21.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="26.125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.75" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14.25" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="15.625" style="3" customWidth="1"/>
+    <col min="22" max="23" width="14.375" style="3" customWidth="1"/>
+    <col min="24" max="25" width="14.875" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1128,10 +1153,10 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1146,13 +1171,13 @@
       <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -1170,21 +1195,39 @@
       <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="T2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="CED7" sheet="1" formatColumns="0" formatRows="0" objects="1"/>
+  <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:Y1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 H2 Q2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
       <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -101,13 +101,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -126,20 +124,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -148,15 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,47 +159,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +175,46 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -233,15 +223,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,14 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,50 +481,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +523,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,171 +587,161 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1066,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1094,7 +1082,7 @@
     <col min="10" max="10" width="13.375" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="10" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="4" customWidth="1"/>
     <col min="14" max="14" width="26.125" style="3" customWidth="1"/>
     <col min="15" max="15" width="18.375" style="3" customWidth="1"/>
     <col min="16" max="16" width="21.75" style="3" customWidth="1"/>
@@ -1109,42 +1097,42 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1153,10 +1141,10 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1174,10 +1162,10 @@
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -1221,11 +1209,11 @@
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+      <formula1>"在职,离职,合作"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
       <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段；
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>所学专业</t>
+  </si>
+  <si>
+    <t>紧急联系姓名</t>
+  </si>
+  <si>
+    <t>紧急联系人电话</t>
+  </si>
+  <si>
+    <t>紧急联系关系</t>
   </si>
   <si>
     <t>家庭成员姓名</t>
@@ -102,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -144,25 +153,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,6 +169,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -182,17 +254,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,68 +270,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,19 +285,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +417,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,127 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +494,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,15 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -520,24 +538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +559,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -575,142 +584,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1090,13 +1099,16 @@
     <col min="18" max="18" width="14.25" style="3" customWidth="1"/>
     <col min="19" max="19" width="17.375" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="15.625" style="3" customWidth="1"/>
-    <col min="22" max="23" width="14.375" style="3" customWidth="1"/>
-    <col min="24" max="25" width="14.875" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="3"/>
+    <col min="21" max="21" width="17" style="3" customWidth="1"/>
+    <col min="22" max="22" width="17.375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="22.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.625" style="3" customWidth="1"/>
+    <col min="25" max="26" width="14.375" style="3" customWidth="1"/>
+    <col min="27" max="28" width="14.875" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:25">
+    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:25">
+    <row r="2" s="2" customFormat="1" spans="1:28">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1200,14 +1215,26 @@
       </c>
       <c r="Y2" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A1:AB1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"在职,离职,合作"</formula1>
@@ -1215,9 +1242,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -82,13 +82,13 @@
     <t>所学专业</t>
   </si>
   <si>
-    <t>紧急联系姓名</t>
+    <t>紧急联系人姓名</t>
   </si>
   <si>
     <t>紧急联系人电话</t>
   </si>
   <si>
-    <t>紧急联系关系</t>
+    <t>紧急联系人关系</t>
   </si>
   <si>
     <t>家庭成员姓名</t>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -133,12 +133,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -146,15 +205,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -169,36 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -207,13 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -223,54 +269,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,17 +497,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +525,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,26 +576,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1232,15 +1232,15 @@
     <mergeCell ref="A1:AB1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
       <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"在职,离职,合作"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
-      <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,81 +140,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +225,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -262,7 +241,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +256,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,37 +285,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,19 +423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,109 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,26 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -533,7 +513,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,7 +522,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +556,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -746,6 +746,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1233,14 +1234,14 @@
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
-      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H4:H1048576">
+      <formula1>"合约中,已解约,合作"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>"在职,离职,合作"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
+      <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -14,12 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>填写须知
-1.姓名、手机号码、企业、角色为必填字段；
-2.出生年月日格式为2021-01-01；
-3.状态、性别、学历通过下拉选择；</t>
+1.姓名、手机号码、企业、角色为必填字段;
+2.出生年月日格式为2021-01-01;
+3.状态、性别、学历通过下拉选择;
+4.签约时间格式为2022-01-01;</t>
   </si>
   <si>
     <t>姓名*</t>
@@ -38,6 +39,9 @@
   </si>
   <si>
     <t>角色*</t>
+  </si>
+  <si>
+    <t>签约日期*</t>
   </si>
   <si>
     <t>推荐人手机号码</t>
@@ -746,7 +750,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1086,30 +1089,30 @@
     <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="3" customWidth="1"/>
     <col min="5" max="6" width="15.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="26.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.75" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17" style="3" customWidth="1"/>
-    <col min="18" max="18" width="14.25" style="3" customWidth="1"/>
-    <col min="19" max="19" width="17.375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17.375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="22.5" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.625" style="3" customWidth="1"/>
-    <col min="25" max="26" width="14.375" style="3" customWidth="1"/>
-    <col min="27" max="28" width="14.875" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="3"/>
+    <col min="7" max="8" width="21.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="26.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.75" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.25" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="17" style="3" customWidth="1"/>
+    <col min="23" max="23" width="17.375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.5" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="3" customWidth="1"/>
+    <col min="26" max="27" width="14.375" style="3" customWidth="1"/>
+    <col min="28" max="29" width="14.875" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" ht="82" customHeight="1" spans="1:29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1140,8 +1143,9 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:28">
+    <row r="2" s="2" customFormat="1" spans="1:29">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1160,10 +1164,10 @@
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1181,10 +1185,10 @@
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -1225,22 +1229,25 @@
       </c>
       <c r="AB2" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 I2 R2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H4:H1048576">
-      <formula1>"合约中,已解约,合作"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 J2 S2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+      <formula1>"在职,离职,合作"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576">
       <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1240,10 +1240,10 @@
     <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+      <formula1>"合约中,已解约,合作"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 J2 S2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
-      <formula1>"在职,离职,合作"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>填写须知
 1.姓名、手机号码、企业、角色为必填字段;
@@ -44,6 +44,9 @@
     <t>签约日期*</t>
   </si>
   <si>
+    <t>合约结束日期*</t>
+  </si>
+  <si>
     <t>推荐人手机号码</t>
   </si>
   <si>
@@ -113,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -136,34 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -177,14 +152,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,6 +196,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -274,7 +256,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,49 +292,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,121 +430,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,21 +483,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,6 +515,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,148 +588,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -760,52 +763,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1076,10 +1079,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1089,30 +1092,32 @@
     <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="3" customWidth="1"/>
     <col min="5" max="6" width="15.125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="21.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="26.125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="18.375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="21.75" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.25" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17" style="3" customWidth="1"/>
-    <col min="23" max="23" width="17.375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.5" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15.625" style="3" customWidth="1"/>
-    <col min="26" max="27" width="14.375" style="3" customWidth="1"/>
-    <col min="28" max="29" width="14.875" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="21.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.9083333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="26.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21.75" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17" style="3" customWidth="1"/>
+    <col min="20" max="20" width="14.25" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="17" style="3" customWidth="1"/>
+    <col min="24" max="24" width="17.375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="22.5" style="3" customWidth="1"/>
+    <col min="26" max="26" width="15.625" style="3" customWidth="1"/>
+    <col min="27" max="28" width="14.375" style="3" customWidth="1"/>
+    <col min="29" max="30" width="14.875" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="82" customHeight="1" spans="1:29">
+    <row r="1" s="1" customFormat="1" ht="82" customHeight="1" spans="1:30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +1149,9 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:29">
+    <row r="2" s="2" customFormat="1" spans="1:30">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1167,10 +1173,10 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1188,10 +1194,10 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -1232,22 +1238,25 @@
       </c>
       <c r="AC2" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A1:AD1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 T2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
       <formula1>"合约中,已解约,合作"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 J2 S2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>"小学,初中,中专,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/template/bos_staff.xlsx
+++ b/src/main/resources/static/template/bos_staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>签约日期*</t>
   </si>
   <si>
-    <t>合约结束日期*</t>
+    <t>合约结束日期</t>
   </si>
   <si>
     <t>推荐人手机号码</t>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1173,7 +1173,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="7" t="s">
